--- a/data/CovidScreening_BKK.xlsx
+++ b/data/CovidScreening_BKK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70018928\Documents\Project2020\coronavirus-py-master\corona-app-v1\Covid-Dash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1280ADB-B171-4814-818D-E269020D87DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C78962-772E-4ECC-B392-6B6D6A014C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4711BDD6-0A0C-41E3-82D7-06A21F8AFDEF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>บิ๊กซีแจ้งวัฒนะ ขาเข้า หลักสี่</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>จดตัด ถนนพุทธมณฑลสาย 3 ตัเถนนบรามราชชนนี เขตทวีวัฒนา</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A2ED2-F8A6-4523-B7E8-85E1A89FE498}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +497,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
